--- a/time/tom-hall/5-time.xlsx
+++ b/time/tom-hall/5-time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomHall/Desktop/phase-0/time/tom-hall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010F2044-A983-EB4C-88B9-8BD7FEA85BAE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9878EFA-BEE0-8140-990D-6B3B9853D16E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14660" xr2:uid="{7D39F791-4970-5B4F-843E-BCE14A262845}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
